--- a/hist.xlsx
+++ b/hist.xlsx
@@ -14,849 +14,1395 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t xml:space="preserve">ATM_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-20</t>
+    <t xml:space="preserve">2024-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100378</t>
   </si>
   <si>
     <t xml:space="preserve">A0138032</t>
   </si>
   <si>
-    <t xml:space="preserve">A0140010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100209</t>
+    <t xml:space="preserve">A0170014</t>
   </si>
   <si>
     <t xml:space="preserve">A0178015</t>
   </si>
   <si>
+    <t xml:space="preserve">A0100448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138051</t>
+  </si>
+  <si>
     <t xml:space="preserve">A0100462</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151032</t>
+    <t xml:space="preserve">A0101020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166047</t>
   </si>
   <si>
     <t xml:space="preserve">A0180067</t>
   </si>
   <si>
-    <t xml:space="preserve">A0151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170022</t>
+    <t xml:space="preserve">A0138049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100498</t>
   </si>
   <si>
     <t xml:space="preserve">A0140030</t>
   </si>
   <si>
-    <t xml:space="preserve">A0182034</t>
+    <t xml:space="preserve">A0138042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127027</t>
   </si>
   <si>
     <t xml:space="preserve">A0151025</t>
   </si>
   <si>
-    <t xml:space="preserve">A0182010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100138</t>
+    <t xml:space="preserve">A0151027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127008</t>
   </si>
   <si>
     <t xml:space="preserve">A0100043</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140027</t>
-  </si>
-  <si>
     <t xml:space="preserve">A0100350</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100041</t>
+    <t xml:space="preserve">A0140015</t>
   </si>
   <si>
     <t xml:space="preserve">A0180016</t>
   </si>
   <si>
-    <t xml:space="preserve">A0141002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100180</t>
+    <t xml:space="preserve">A0178030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127042</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1217,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>251975</v>
       </c>
     </row>
     <row r="5">
@@ -1225,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="6">
@@ -1233,7 +1779,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -1241,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-9510</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1273,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="12">
@@ -1281,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1329,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>-50</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="19">
@@ -1345,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1369,7 +1915,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-9749</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>-505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1401,7 +1947,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>-16</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="28">
@@ -1417,7 +1963,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1433,7 +1979,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1465,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="36">
@@ -1473,7 +2019,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>-2550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1489,7 +2035,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="39">
@@ -1497,7 +2043,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1505,7 +2051,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1513,7 +2059,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>-145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1521,7 +2067,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1593,7 +2139,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-401</v>
       </c>
     </row>
     <row r="52">
@@ -1601,7 +2147,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1609,7 +2155,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>-4123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1617,7 +2163,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1633,7 +2179,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1649,7 +2195,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1657,7 +2203,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="60">
@@ -1705,7 +2251,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>-110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1737,7 +2283,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="70">
@@ -1769,7 +2315,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>-1483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +2323,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1785,7 +2331,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1793,7 +2339,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>-160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1809,7 +2355,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>-600</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -1833,7 +2379,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>-584</v>
       </c>
     </row>
     <row r="82">
@@ -1881,7 +2427,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1921,7 +2467,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>-5010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1929,7 +2475,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>-350</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="94">
@@ -1985,7 +2531,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2001,7 +2547,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
@@ -2017,7 +2563,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>-395</v>
       </c>
     </row>
     <row r="105">
@@ -2041,7 +2587,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2073,7 +2619,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2089,7 +2635,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2113,7 +2659,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="117">
@@ -2121,7 +2667,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2145,7 +2691,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2177,7 +2723,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="125">
@@ -2185,7 +2731,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n">
-        <v>-218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2193,7 +2739,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n">
-        <v>-1285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2209,7 +2755,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2225,7 +2771,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2779,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n">
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2257,7 +2803,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2281,7 +2827,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>40617</v>
       </c>
     </row>
     <row r="138">
@@ -2297,7 +2843,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2305,7 +2851,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>-430</v>
       </c>
     </row>
     <row r="141">
@@ -2329,7 +2875,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="144">
@@ -2345,7 +2891,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2369,7 +2915,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2393,7 +2939,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2449,7 +2995,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>-1728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2457,7 +3003,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2465,7 +3011,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>50</v>
+        <v>-365</v>
       </c>
     </row>
     <row r="161">
@@ -2497,7 +3043,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2505,7 +3051,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>-816</v>
       </c>
     </row>
     <row r="166">
@@ -2561,7 +3107,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2593,7 +3139,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2625,7 +3171,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2681,7 +3227,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="188">
@@ -2745,7 +3291,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>-395</v>
       </c>
     </row>
     <row r="196">
@@ -2761,7 +3307,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2769,7 +3315,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2777,7 +3323,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2809,7 +3355,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>-5</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="204">
@@ -2833,7 +3379,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2849,7 +3395,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>-169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2873,7 +3419,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>-4065</v>
       </c>
     </row>
     <row r="212">
@@ -2881,7 +3427,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="213">
@@ -2897,7 +3443,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="215">
@@ -2929,7 +3475,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="219">
@@ -2969,7 +3515,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>-202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2977,7 +3523,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -2985,7 +3531,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="n">
-        <v>299338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3009,7 +3555,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="n">
-        <v>-1026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3049,7 +3595,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -3057,7 +3603,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n">
-        <v>-135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3073,7 +3619,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="n">
-        <v>-1236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -3081,7 +3627,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238">
@@ -3097,7 +3643,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -3121,7 +3667,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="n">
-        <v>-4038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -3129,7 +3675,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="244">
@@ -3177,7 +3723,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n">
-        <v>-2800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -3225,7 +3771,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>-860</v>
       </c>
     </row>
     <row r="256">
@@ -3273,7 +3819,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -3289,7 +3835,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="n">
-        <v>-42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -3297,7 +3843,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -3305,7 +3851,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -3369,7 +3915,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -3377,7 +3923,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n">
-        <v>8970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -3385,7 +3931,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -3393,7 +3939,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="277">
@@ -3401,7 +3947,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -3409,7 +3955,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="n">
-        <v>-150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -3417,7 +3963,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -3425,6 +3971,1462 @@
         <v>280</v>
       </c>
       <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-833</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-299</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-302</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-4610</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-470</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-443</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-1975</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-829</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-484</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-82836</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-12691</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="n">
+        <v>-2540</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-1932</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="n">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3543,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14">
@@ -3887,7 +5889,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4023,7 +6025,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>18708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4031,7 +6033,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="75">
@@ -4399,7 +6401,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4479,7 +6481,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4527,7 +6529,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4607,7 +6609,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4911,7 +6913,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4927,7 +6929,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>300</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="187">
@@ -5103,7 +7105,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209">
@@ -5183,7 +7185,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>29600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -5215,7 +7217,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5223,7 +7225,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="224">
@@ -5383,7 +7385,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5423,7 +7425,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249">
@@ -5527,7 +7529,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>11800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -5567,7 +7569,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -5591,7 +7593,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>28300</v>
       </c>
     </row>
     <row r="270">
@@ -5599,7 +7601,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -5679,6 +7681,1462 @@
         <v>280</v>
       </c>
       <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="n">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6045,7 +9503,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6277,7 +9735,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6653,7 +10111,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -7437,7 +10895,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -7589,7 +11047,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -7933,6 +11391,1462 @@
         <v>280</v>
       </c>
       <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>

--- a/hist.xlsx
+++ b/hist.xlsx
@@ -14,1395 +14,1035 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t xml:space="preserve">ATM_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-02-16</t>
+    <t xml:space="preserve">2024-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100179</t>
   </si>
   <si>
     <t xml:space="preserve">A0178004</t>
   </si>
   <si>
-    <t xml:space="preserve">A0127046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100113</t>
+    <t xml:space="preserve">A0141045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0138015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0166028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170023</t>
   </si>
   <si>
     <t xml:space="preserve">A0166022</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182016</t>
+    <t xml:space="preserve">A0170020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100445</t>
   </si>
   <si>
     <t xml:space="preserve">A0100182</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127048</t>
+    <t xml:space="preserve">A0100249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0180062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100463</t>
   </si>
   <si>
     <t xml:space="preserve">A0101032</t>
   </si>
   <si>
-    <t xml:space="preserve">A0140019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182007</t>
+    <t xml:space="preserve">A0100197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0140049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127044</t>
   </si>
   <si>
     <t xml:space="preserve">A0151010</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141011</t>
+    <t xml:space="preserve">A0100129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0178017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100450</t>
   </si>
   <si>
     <t xml:space="preserve">A0151034</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140011</t>
+    <t xml:space="preserve">A0170013</t>
   </si>
   <si>
     <t xml:space="preserve">A0166020</t>
   </si>
   <si>
-    <t xml:space="preserve">A0166019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151014</t>
+    <t xml:space="preserve">A0100503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0182019</t>
   </si>
   <si>
     <t xml:space="preserve">A0182017</t>
   </si>
   <si>
-    <t xml:space="preserve">A0170013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138024</t>
+    <t xml:space="preserve">A0100046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0170031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0101027</t>
   </si>
   <si>
     <t xml:space="preserve">A0151023</t>
   </si>
   <si>
-    <t xml:space="preserve">A0180006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138041</t>
+    <t xml:space="preserve">A0141031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100283</t>
   </si>
   <si>
     <t xml:space="preserve">A0100229</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140005</t>
-  </si>
-  <si>
     <t xml:space="preserve">A0100244</t>
   </si>
   <si>
-    <t xml:space="preserve">A0182024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100408</t>
+    <t xml:space="preserve">A0101002</t>
   </si>
   <si>
     <t xml:space="preserve">A0178043</t>
   </si>
   <si>
-    <t xml:space="preserve">A0100315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0182027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0138042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0151027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0141008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0100350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0180016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0178030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0170029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0166029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0127042</t>
+    <t xml:space="preserve">A0100110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0141049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0127029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0151006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0100281</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-687</v>
       </c>
     </row>
     <row r="3">
@@ -1763,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>251975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1771,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-145</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1787,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>-9510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1795,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>-156</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="9">
@@ -1819,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>-300</v>
+        <v>-2242</v>
       </c>
     </row>
     <row r="12">
@@ -1835,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-220</v>
       </c>
     </row>
     <row r="14">
@@ -1875,7 +1515,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1915,7 +1555,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>-9749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1947,7 +1587,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>-49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1955,7 +1595,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="29">
@@ -1963,7 +1603,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
@@ -1979,7 +1619,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>90</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="32">
@@ -1995,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="34">
@@ -2011,7 +1651,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2035,7 +1675,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>-160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2083,7 +1723,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-892</v>
       </c>
     </row>
     <row r="45">
@@ -2131,7 +1771,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51">
@@ -2139,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>-401</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="52">
@@ -2171,7 +1811,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="56">
@@ -2195,7 +1835,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="59">
@@ -2203,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2211,7 +1851,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="61">
@@ -2251,7 +1891,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2259,7 +1899,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="67">
@@ -2283,7 +1923,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>-225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2307,7 +1947,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="73">
@@ -2331,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>270563</v>
       </c>
     </row>
     <row r="76">
@@ -2347,7 +1987,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>39360</v>
       </c>
     </row>
     <row r="78">
@@ -2355,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2379,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>-584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2475,7 +2115,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2491,7 +2131,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="96">
@@ -2507,7 +2147,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="98">
@@ -2531,7 +2171,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
@@ -2547,7 +2187,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2563,7 +2203,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>-395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2571,7 +2211,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="106">
@@ -2603,7 +2243,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="110">
@@ -2627,7 +2267,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>-5865</v>
       </c>
     </row>
     <row r="113">
@@ -2659,7 +2299,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n">
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2675,7 +2315,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-386400</v>
       </c>
     </row>
     <row r="119">
@@ -2723,7 +2363,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2755,7 +2395,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="129">
@@ -2803,7 +2443,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135">
@@ -2827,7 +2467,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>40617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2851,7 +2491,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>-430</v>
+        <v>30630</v>
       </c>
     </row>
     <row r="141">
@@ -2875,7 +2515,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2907,7 +2547,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="148">
@@ -2939,7 +2579,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="152">
@@ -2963,7 +2603,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>-487</v>
       </c>
     </row>
     <row r="155">
@@ -3011,7 +2651,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>-365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3019,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="162">
@@ -3043,7 +2683,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>-136</v>
       </c>
     </row>
     <row r="165">
@@ -3051,7 +2691,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>-816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3099,7 +2739,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>-364</v>
       </c>
     </row>
     <row r="172">
@@ -3227,7 +2867,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3259,7 +2899,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="192">
@@ -3291,7 +2931,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n">
-        <v>-395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3307,7 +2947,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>-386323</v>
       </c>
     </row>
     <row r="198">
@@ -3323,7 +2963,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="200">
@@ -3355,7 +2995,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -3371,7 +3011,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="206">
@@ -3403,7 +3043,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="210">
@@ -3411,7 +3051,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="211">
@@ -3419,7 +3059,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="n">
-        <v>-4065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3427,7 +3067,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -3435,7 +3075,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="214">
@@ -3443,7 +3083,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3475,7 +3115,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -3499,7 +3139,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="222">
@@ -3627,7 +3267,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -3675,7 +3315,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -3691,7 +3331,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="246">
@@ -3771,7 +3411,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n">
-        <v>-860</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="256">
@@ -3843,7 +3483,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="265">
@@ -3907,7 +3547,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="273">
@@ -3939,7 +3579,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -4027,7 +3667,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="n">
-        <v>-833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4051,7 +3691,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>-270</v>
       </c>
     </row>
     <row r="291">
@@ -4091,7 +3731,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="n">
-        <v>-299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4099,7 +3739,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -4123,7 +3763,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="n">
-        <v>-302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -4155,7 +3795,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="304">
@@ -4211,7 +3851,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="n">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -4219,7 +3859,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="n">
-        <v>-4610</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="312">
@@ -4251,7 +3891,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>-5014</v>
       </c>
     </row>
     <row r="316">
@@ -4259,7 +3899,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="317">
@@ -4275,7 +3915,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="319">
@@ -4283,7 +3923,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="n">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4299,7 +3939,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>-470</v>
       </c>
     </row>
     <row r="322">
@@ -4339,7 +3979,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n">
-        <v>-470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -4371,7 +4011,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4379,7 +4019,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -4419,7 +4059,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="n">
-        <v>-443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -4435,7 +4075,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -4443,7 +4083,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="340">
@@ -4451,7 +4091,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="341">
@@ -4459,7 +4099,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="342">
@@ -4467,966 +4107,6 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>343</v>
-      </c>
-      <c r="B343" t="n">
-        <v>-1975</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>344</v>
-      </c>
-      <c r="B344" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>345</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>346</v>
-      </c>
-      <c r="B346" t="n">
-        <v>-829</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>347</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>348</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>349</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>350</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>351</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>352</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>353</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>354</v>
-      </c>
-      <c r="B354" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>355</v>
-      </c>
-      <c r="B355" t="n">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>356</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>357</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>358</v>
-      </c>
-      <c r="B358" t="n">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>359</v>
-      </c>
-      <c r="B359" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>360</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>361</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>362</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>363</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>364</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>365</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>366</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>367</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>368</v>
-      </c>
-      <c r="B368" t="n">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>369</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>370</v>
-      </c>
-      <c r="B370" t="n">
-        <v>-484</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>371</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>372</v>
-      </c>
-      <c r="B372" t="n">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>373</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>375</v>
-      </c>
-      <c r="B375" t="n">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>376</v>
-      </c>
-      <c r="B376" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>377</v>
-      </c>
-      <c r="B377" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>378</v>
-      </c>
-      <c r="B378" t="n">
-        <v>-373</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>379</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>380</v>
-      </c>
-      <c r="B380" t="n">
-        <v>-82836</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>381</v>
-      </c>
-      <c r="B381" t="n">
-        <v>-12691</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>382</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>383</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>384</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>385</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>386</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>387</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>388</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>389</v>
-      </c>
-      <c r="B389" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>390</v>
-      </c>
-      <c r="B390" t="n">
-        <v>-2540</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>391</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>392</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>393</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>394</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>395</v>
-      </c>
-      <c r="B395" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>396</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>397</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>398</v>
-      </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>399</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>400</v>
-      </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>401</v>
-      </c>
-      <c r="B401" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>402</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>403</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>404</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>405</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>407</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>409</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>410</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>412</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>413</v>
-      </c>
-      <c r="B413" t="n">
-        <v>-51</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>414</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>416</v>
-      </c>
-      <c r="B416" t="n">
-        <v>-1932</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>417</v>
-      </c>
-      <c r="B417" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>418</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>419</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>421</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>422</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>423</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>424</v>
-      </c>
-      <c r="B424" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>425</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>426</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>427</v>
-      </c>
-      <c r="B427" t="n">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>428</v>
-      </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>429</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>430</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>431</v>
-      </c>
-      <c r="B431" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>432</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>433</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>434</v>
-      </c>
-      <c r="B434" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>435</v>
-      </c>
-      <c r="B435" t="n">
-        <v>-74</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>436</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>437</v>
-      </c>
-      <c r="B437" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>438</v>
-      </c>
-      <c r="B438" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>439</v>
-      </c>
-      <c r="B439" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>440</v>
-      </c>
-      <c r="B440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>441</v>
-      </c>
-      <c r="B441" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>442</v>
-      </c>
-      <c r="B442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>443</v>
-      </c>
-      <c r="B443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>444</v>
-      </c>
-      <c r="B444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>445</v>
-      </c>
-      <c r="B445" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>447</v>
-      </c>
-      <c r="B447" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>448</v>
-      </c>
-      <c r="B448" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>449</v>
-      </c>
-      <c r="B449" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>450</v>
-      </c>
-      <c r="B450" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>451</v>
-      </c>
-      <c r="B451" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>452</v>
-      </c>
-      <c r="B452" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>453</v>
-      </c>
-      <c r="B453" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>454</v>
-      </c>
-      <c r="B454" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>455</v>
-      </c>
-      <c r="B455" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>456</v>
-      </c>
-      <c r="B456" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>457</v>
-      </c>
-      <c r="B457" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>459</v>
-      </c>
-      <c r="B459" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>460</v>
-      </c>
-      <c r="B460" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>461</v>
-      </c>
-      <c r="B461" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5457,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20012</v>
       </c>
     </row>
     <row r="3">
@@ -5481,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5545,7 +4225,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5633,7 +4313,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -5849,7 +4529,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
@@ -6033,7 +4713,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>2950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6281,7 +4961,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106">
@@ -6785,7 +5465,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="169">
@@ -6905,7 +5585,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="184">
@@ -6929,7 +5609,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>2770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6961,7 +5641,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="191">
@@ -7105,7 +5785,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7225,7 +5905,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -7425,7 +6105,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -7529,7 +6209,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262">
@@ -7537,7 +6217,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>22300</v>
       </c>
     </row>
     <row r="263">
@@ -7593,7 +6273,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n">
-        <v>28300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -7601,7 +6281,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="271">
@@ -7905,7 +6585,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="n">
-        <v>27800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -8097,7 +6777,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="333">
@@ -8177,966 +6857,6 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>343</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>344</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>345</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>346</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>347</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>348</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>349</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>350</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>351</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>352</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>353</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>354</v>
-      </c>
-      <c r="B354" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>355</v>
-      </c>
-      <c r="B355" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>356</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>357</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>358</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>359</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>360</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>361</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>362</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>363</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>364</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>365</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>366</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>367</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>368</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>369</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>370</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>371</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>372</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>373</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>375</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>376</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>377</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>378</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>379</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>380</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>381</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>382</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>383</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>384</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>385</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>386</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>387</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>388</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>389</v>
-      </c>
-      <c r="B389" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>390</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>391</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>392</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>393</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>394</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>395</v>
-      </c>
-      <c r="B395" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>396</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>397</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>398</v>
-      </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>399</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>400</v>
-      </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>401</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>402</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>403</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>404</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>405</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>407</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>409</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>410</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>412</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>413</v>
-      </c>
-      <c r="B413" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>414</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>416</v>
-      </c>
-      <c r="B416" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>417</v>
-      </c>
-      <c r="B417" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>418</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>419</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>421</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>422</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>423</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>424</v>
-      </c>
-      <c r="B424" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>425</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>426</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>427</v>
-      </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>428</v>
-      </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>429</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>430</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>431</v>
-      </c>
-      <c r="B431" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>432</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>433</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>434</v>
-      </c>
-      <c r="B434" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>435</v>
-      </c>
-      <c r="B435" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>436</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>437</v>
-      </c>
-      <c r="B437" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>438</v>
-      </c>
-      <c r="B438" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>439</v>
-      </c>
-      <c r="B439" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>440</v>
-      </c>
-      <c r="B440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>441</v>
-      </c>
-      <c r="B441" t="n">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>442</v>
-      </c>
-      <c r="B442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>443</v>
-      </c>
-      <c r="B443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>444</v>
-      </c>
-      <c r="B444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>445</v>
-      </c>
-      <c r="B445" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>447</v>
-      </c>
-      <c r="B447" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>448</v>
-      </c>
-      <c r="B448" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>449</v>
-      </c>
-      <c r="B449" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>450</v>
-      </c>
-      <c r="B450" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>451</v>
-      </c>
-      <c r="B451" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>452</v>
-      </c>
-      <c r="B452" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>453</v>
-      </c>
-      <c r="B453" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>454</v>
-      </c>
-      <c r="B454" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>455</v>
-      </c>
-      <c r="B455" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>456</v>
-      </c>
-      <c r="B456" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>457</v>
-      </c>
-      <c r="B457" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>459</v>
-      </c>
-      <c r="B459" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>460</v>
-      </c>
-      <c r="B460" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>461</v>
-      </c>
-      <c r="B461" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9167,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9991,7 +7711,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106">
@@ -11887,966 +9607,6 @@
         <v>342</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>343</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>344</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>345</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>346</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>347</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>348</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>349</v>
-      </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>350</v>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>351</v>
-      </c>
-      <c r="B351" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>352</v>
-      </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>353</v>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>354</v>
-      </c>
-      <c r="B354" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>355</v>
-      </c>
-      <c r="B355" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>356</v>
-      </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>357</v>
-      </c>
-      <c r="B357" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>358</v>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>359</v>
-      </c>
-      <c r="B359" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>360</v>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>361</v>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>362</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>363</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>364</v>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>365</v>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>366</v>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>367</v>
-      </c>
-      <c r="B367" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>368</v>
-      </c>
-      <c r="B368" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>369</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>370</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>371</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>372</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>373</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>374</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>375</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>376</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>377</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>378</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>379</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>380</v>
-      </c>
-      <c r="B380" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>381</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>382</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>383</v>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>384</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>385</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>386</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>387</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>388</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>389</v>
-      </c>
-      <c r="B389" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>390</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>391</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>392</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>393</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>394</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>395</v>
-      </c>
-      <c r="B395" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>396</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>397</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>398</v>
-      </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>399</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>400</v>
-      </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>401</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>402</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>403</v>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>404</v>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>405</v>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>406</v>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>407</v>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>408</v>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>409</v>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>410</v>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>411</v>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>412</v>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>413</v>
-      </c>
-      <c r="B413" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>414</v>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>415</v>
-      </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>416</v>
-      </c>
-      <c r="B416" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>417</v>
-      </c>
-      <c r="B417" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>418</v>
-      </c>
-      <c r="B418" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>419</v>
-      </c>
-      <c r="B419" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>421</v>
-      </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>422</v>
-      </c>
-      <c r="B422" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>423</v>
-      </c>
-      <c r="B423" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>424</v>
-      </c>
-      <c r="B424" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>425</v>
-      </c>
-      <c r="B425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>426</v>
-      </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>427</v>
-      </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>428</v>
-      </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>429</v>
-      </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>430</v>
-      </c>
-      <c r="B430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>431</v>
-      </c>
-      <c r="B431" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>432</v>
-      </c>
-      <c r="B432" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>433</v>
-      </c>
-      <c r="B433" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>434</v>
-      </c>
-      <c r="B434" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>435</v>
-      </c>
-      <c r="B435" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>436</v>
-      </c>
-      <c r="B436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>437</v>
-      </c>
-      <c r="B437" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>438</v>
-      </c>
-      <c r="B438" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>439</v>
-      </c>
-      <c r="B439" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>440</v>
-      </c>
-      <c r="B440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>441</v>
-      </c>
-      <c r="B441" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>442</v>
-      </c>
-      <c r="B442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>443</v>
-      </c>
-      <c r="B443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>444</v>
-      </c>
-      <c r="B444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>445</v>
-      </c>
-      <c r="B445" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>447</v>
-      </c>
-      <c r="B447" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>448</v>
-      </c>
-      <c r="B448" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>449</v>
-      </c>
-      <c r="B449" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>450</v>
-      </c>
-      <c r="B450" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>451</v>
-      </c>
-      <c r="B451" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>452</v>
-      </c>
-      <c r="B452" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>453</v>
-      </c>
-      <c r="B453" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>454</v>
-      </c>
-      <c r="B454" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>455</v>
-      </c>
-      <c r="B455" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>456</v>
-      </c>
-      <c r="B456" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>457</v>
-      </c>
-      <c r="B457" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>459</v>
-      </c>
-      <c r="B459" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>460</v>
-      </c>
-      <c r="B460" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>461</v>
-      </c>
-      <c r="B461" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462" t="n">
         <v>0</v>
       </c>
     </row>
